--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>454.7282939106785</v>
+        <v>1091.244061670152</v>
       </c>
       <c r="R2">
-        <v>454.7282939106785</v>
+        <v>9821.196555031365</v>
       </c>
       <c r="S2">
-        <v>0.00496276950904142</v>
+        <v>0.01075735722363819</v>
       </c>
       <c r="T2">
-        <v>0.00496276950904142</v>
+        <v>0.01075735722363819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>6906.56492426074</v>
+        <v>7788.522645210217</v>
       </c>
       <c r="R3">
-        <v>6906.56492426074</v>
+        <v>70096.70380689195</v>
       </c>
       <c r="S3">
-        <v>0.07537619778079804</v>
+        <v>0.07677835168302335</v>
       </c>
       <c r="T3">
-        <v>0.07537619778079804</v>
+        <v>0.07677835168302337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>6144.568271215524</v>
+        <v>7616.429282163475</v>
       </c>
       <c r="R4">
-        <v>6144.568271215524</v>
+        <v>68547.86353947128</v>
       </c>
       <c r="S4">
-        <v>0.06705999268345869</v>
+        <v>0.07508187529690889</v>
       </c>
       <c r="T4">
-        <v>0.06705999268345869</v>
+        <v>0.07508187529690889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>7676.511396606849</v>
+        <v>8703.178517351253</v>
       </c>
       <c r="R5">
-        <v>7676.511396606849</v>
+        <v>78328.60665616127</v>
       </c>
       <c r="S5">
-        <v>0.08377916484425471</v>
+        <v>0.08579492304310976</v>
       </c>
       <c r="T5">
-        <v>0.08377916484425471</v>
+        <v>0.08579492304310977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>2936.324102169156</v>
+        <v>3306.335170891037</v>
       </c>
       <c r="R6">
-        <v>2936.324102169156</v>
+        <v>29757.01653801934</v>
       </c>
       <c r="S6">
-        <v>0.03204616892779256</v>
+        <v>0.03259346811923784</v>
       </c>
       <c r="T6">
-        <v>0.03204616892779256</v>
+        <v>0.03259346811923784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>1868.95774667919</v>
+        <v>2221.66473475837</v>
       </c>
       <c r="R7">
-        <v>1868.95774667919</v>
+        <v>19994.98261282533</v>
       </c>
       <c r="S7">
-        <v>0.02039724961721462</v>
+        <v>0.021900912932692</v>
       </c>
       <c r="T7">
-        <v>0.02039724961721462</v>
+        <v>0.021900912932692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>1047.566240668769</v>
+        <v>2276.600608167925</v>
       </c>
       <c r="R8">
-        <v>1047.566240668769</v>
+        <v>20489.40547351133</v>
       </c>
       <c r="S8">
-        <v>0.0114328267396383</v>
+        <v>0.02244246439255028</v>
       </c>
       <c r="T8">
-        <v>0.0114328267396383</v>
+        <v>0.02244246439255029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>15910.78529866844</v>
+        <v>16248.75315580398</v>
       </c>
       <c r="R9">
-        <v>15910.78529866844</v>
+        <v>146238.7784022359</v>
       </c>
       <c r="S9">
-        <v>0.173645583972935</v>
+        <v>0.1601783214913259</v>
       </c>
       <c r="T9">
-        <v>0.173645583972935</v>
+        <v>0.1601783214913259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>14155.35908059027</v>
+        <v>15889.7245308287</v>
       </c>
       <c r="R10">
-        <v>14155.35908059027</v>
+        <v>143007.5207774583</v>
       </c>
       <c r="S10">
-        <v>0.1544873837309209</v>
+        <v>0.1566390590036477</v>
       </c>
       <c r="T10">
-        <v>0.1544873837309209</v>
+        <v>0.1566390590036477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>17684.52566704373</v>
+        <v>18156.94783738023</v>
       </c>
       <c r="R11">
-        <v>17684.52566704373</v>
+        <v>163412.5305364221</v>
       </c>
       <c r="S11">
-        <v>0.1930036594105234</v>
+        <v>0.1789890830459367</v>
       </c>
       <c r="T11">
-        <v>0.1930036594105234</v>
+        <v>0.1789890830459367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>6764.46581900763</v>
+        <v>6897.81958523296</v>
       </c>
       <c r="R12">
-        <v>6764.46581900763</v>
+        <v>62080.37626709663</v>
       </c>
       <c r="S12">
-        <v>0.07382537036087346</v>
+        <v>0.06799790436338497</v>
       </c>
       <c r="T12">
-        <v>0.07382537036087346</v>
+        <v>0.06799790436338497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>4305.553595136684</v>
+        <v>4634.933159274284</v>
       </c>
       <c r="R13">
-        <v>4305.553595136684</v>
+        <v>41714.39843346855</v>
       </c>
       <c r="S13">
-        <v>0.04698953284328768</v>
+        <v>0.04569063278629814</v>
       </c>
       <c r="T13">
-        <v>0.04698953284328768</v>
+        <v>0.04569063278629814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>0.7816772765032179</v>
+        <v>1.945903818056</v>
       </c>
       <c r="R14">
-        <v>0.7816772765032179</v>
+        <v>17.513134362504</v>
       </c>
       <c r="S14">
-        <v>8.530993575039581E-06</v>
+        <v>1.918249384251601E-05</v>
       </c>
       <c r="T14">
-        <v>8.530993575039581E-06</v>
+        <v>1.918249384251601E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>11.87237506942827</v>
+        <v>13.888475075992</v>
       </c>
       <c r="R15">
-        <v>11.87237506942827</v>
+        <v>124.996275683928</v>
       </c>
       <c r="S15">
-        <v>0.0001295715744620801</v>
+        <v>0.0001369109743015503</v>
       </c>
       <c r="T15">
-        <v>0.0001295715744620801</v>
+        <v>0.0001369109743015503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>10.56250393003981</v>
+        <v>13.581598599888</v>
       </c>
       <c r="R16">
-        <v>10.56250393003981</v>
+        <v>122.234387398992</v>
       </c>
       <c r="S16">
-        <v>0.0001152760299833648</v>
+        <v>0.0001338858216405319</v>
       </c>
       <c r="T16">
-        <v>0.0001152760299833648</v>
+        <v>0.0001338858216405319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>13.19591193664372</v>
+        <v>15.51948725404</v>
       </c>
       <c r="R17">
-        <v>13.19591193664372</v>
+        <v>139.67538528636</v>
       </c>
       <c r="S17">
-        <v>0.0001440162626344841</v>
+        <v>0.0001529893029281577</v>
       </c>
       <c r="T17">
-        <v>0.0001440162626344841</v>
+        <v>0.0001529893029281577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>5.047536865091566</v>
+        <v>5.895849021128</v>
       </c>
       <c r="R18">
-        <v>5.047536865091566</v>
+        <v>53.062641190152</v>
       </c>
       <c r="S18">
-        <v>5.508731782315578E-05</v>
+        <v>5.812059491058419E-05</v>
       </c>
       <c r="T18">
-        <v>5.508731782315578E-05</v>
+        <v>5.812059491058419E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H19">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>3.212735650908819</v>
+        <v>3.961667276512</v>
       </c>
       <c r="R19">
-        <v>3.212735650908819</v>
+        <v>35.655005488608</v>
       </c>
       <c r="S19">
-        <v>3.50628424543833E-05</v>
+        <v>3.905365590664646E-05</v>
       </c>
       <c r="T19">
-        <v>3.50628424543833E-05</v>
+        <v>3.905365590664646E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H20">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>1.861736472449101</v>
+        <v>4.517536274150555</v>
       </c>
       <c r="R20">
-        <v>1.861736472449101</v>
+        <v>40.657826467355</v>
       </c>
       <c r="S20">
-        <v>2.031843877556386E-05</v>
+        <v>4.453334792713885E-05</v>
       </c>
       <c r="T20">
-        <v>2.031843877556386E-05</v>
+        <v>4.453334792713886E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H21">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>28.2766742052774</v>
+        <v>32.24295536410944</v>
       </c>
       <c r="R21">
-        <v>28.2766742052774</v>
+        <v>290.186598276985</v>
       </c>
       <c r="S21">
-        <v>0.0003086032218408947</v>
+        <v>0.0003178473093055766</v>
       </c>
       <c r="T21">
-        <v>0.0003086032218408947</v>
+        <v>0.0003178473093055767</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H22">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>25.15692779878464</v>
+        <v>31.53052261197667</v>
       </c>
       <c r="R22">
-        <v>25.15692779878464</v>
+        <v>283.77470350779</v>
       </c>
       <c r="S22">
-        <v>0.0002745552363748199</v>
+        <v>0.0003108242299764828</v>
       </c>
       <c r="T22">
-        <v>0.0002745552363748199</v>
+        <v>0.0003108242299764829</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H23">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>31.42896855026452</v>
+        <v>36.02945118653611</v>
       </c>
       <c r="R23">
-        <v>31.42896855026452</v>
+        <v>324.265060678825</v>
       </c>
       <c r="S23">
-        <v>0.0003430064258383542</v>
+        <v>0.0003551741453621375</v>
       </c>
       <c r="T23">
-        <v>0.0003430064258383542</v>
+        <v>0.0003551741453621375</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H24">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>12.02181995082427</v>
+        <v>13.68757878612389</v>
       </c>
       <c r="R24">
-        <v>12.02181995082427</v>
+        <v>123.188209075115</v>
       </c>
       <c r="S24">
-        <v>0.0001312025715005447</v>
+        <v>0.0001349305620079821</v>
       </c>
       <c r="T24">
-        <v>0.0001312025715005447</v>
+        <v>0.0001349305620079821</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H25">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>7.651837039949859</v>
+        <v>9.197256031717778</v>
       </c>
       <c r="R25">
-        <v>7.651837039949859</v>
+        <v>82.77530428546</v>
       </c>
       <c r="S25">
-        <v>8.350987624595918E-05</v>
+        <v>9.066548179792523E-05</v>
       </c>
       <c r="T25">
-        <v>8.350987624595918E-05</v>
+        <v>9.066548179792523E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H26">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>3.586377710687668</v>
+        <v>7.730459158202332</v>
       </c>
       <c r="R26">
-        <v>3.586377710687668</v>
+        <v>69.574132423821</v>
       </c>
       <c r="S26">
-        <v>3.91406608932116E-05</v>
+        <v>7.620596857155157E-05</v>
       </c>
       <c r="T26">
-        <v>3.91406608932116E-05</v>
+        <v>7.620596857155158E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H27">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>54.47110028884945</v>
+        <v>55.17450983364966</v>
       </c>
       <c r="R27">
-        <v>54.47110028884945</v>
+        <v>496.5705885028469</v>
       </c>
       <c r="S27">
-        <v>0.0005944814062758525</v>
+        <v>0.0005439039100119412</v>
       </c>
       <c r="T27">
-        <v>0.0005944814062758525</v>
+        <v>0.0005439039100119414</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H28">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>48.46134050768931</v>
+        <v>53.95538685176199</v>
       </c>
       <c r="R28">
-        <v>48.46134050768931</v>
+        <v>485.5984816658579</v>
       </c>
       <c r="S28">
-        <v>0.0005288926734039466</v>
+        <v>0.0005318859372445653</v>
       </c>
       <c r="T28">
-        <v>0.0005288926734039466</v>
+        <v>0.0005318859372445653</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H29">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>60.54355916994798</v>
+        <v>61.65400430400166</v>
       </c>
       <c r="R29">
-        <v>60.54355916994798</v>
+        <v>554.8860387360149</v>
       </c>
       <c r="S29">
-        <v>0.000660754418497835</v>
+        <v>0.00060777801397681</v>
       </c>
       <c r="T29">
-        <v>0.000660754418497835</v>
+        <v>0.0006077780139768101</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H30">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>23.15837270825945</v>
+        <v>23.42233960273033</v>
       </c>
       <c r="R30">
-        <v>23.15837270825945</v>
+        <v>210.801056424573</v>
       </c>
       <c r="S30">
-        <v>0.0002527435998476541</v>
+        <v>0.0002308947035499179</v>
       </c>
       <c r="T30">
-        <v>0.0002527435998476541</v>
+        <v>0.0002308947035499179</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H31">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>14.74020529328204</v>
+        <v>15.73844852725466</v>
       </c>
       <c r="R31">
-        <v>14.74020529328204</v>
+        <v>141.646036745292</v>
       </c>
       <c r="S31">
-        <v>0.0001608702215501027</v>
+        <v>0.0001551477977295019</v>
       </c>
       <c r="T31">
-        <v>0.0001608702215501027</v>
+        <v>0.0001551477977295019</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H32">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>94.76817607309798</v>
+        <v>220.5340491822061</v>
       </c>
       <c r="R32">
-        <v>94.76817607309798</v>
+        <v>1984.806442639855</v>
       </c>
       <c r="S32">
-        <v>0.001034271719928257</v>
+        <v>0.002173999044171178</v>
       </c>
       <c r="T32">
-        <v>0.001034271719928257</v>
+        <v>0.002173999044171179</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H33">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>1439.370651809916</v>
+        <v>1574.014921526054</v>
       </c>
       <c r="R33">
-        <v>1439.370651809916</v>
+        <v>14166.13429373448</v>
       </c>
       <c r="S33">
-        <v>0.01570886368556267</v>
+        <v>0.01551645629143471</v>
       </c>
       <c r="T33">
-        <v>0.01570886368556267</v>
+        <v>0.01551645629143471</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H34">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>1280.565857936489</v>
+        <v>1539.235858323643</v>
       </c>
       <c r="R34">
-        <v>1280.565857936489</v>
+        <v>13853.12272491279</v>
       </c>
       <c r="S34">
-        <v>0.0139757153429626</v>
+        <v>0.01517360832560091</v>
       </c>
       <c r="T34">
-        <v>0.0139757153429626</v>
+        <v>0.01517360832560091</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H35">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>1599.832236970239</v>
+        <v>1758.861529335147</v>
       </c>
       <c r="R35">
-        <v>1599.832236970239</v>
+        <v>15829.75376401632</v>
       </c>
       <c r="S35">
-        <v>0.0174600937560683</v>
+        <v>0.0173386526832637</v>
       </c>
       <c r="T35">
-        <v>0.0174600937560683</v>
+        <v>0.01733865268326371</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H36">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>611.94802093557</v>
+        <v>668.1910205075127</v>
       </c>
       <c r="R36">
-        <v>611.94802093557</v>
+        <v>6013.719184567614</v>
       </c>
       <c r="S36">
-        <v>0.006678618902948298</v>
+        <v>0.006586949476935032</v>
       </c>
       <c r="T36">
-        <v>0.006678618902948298</v>
+        <v>0.006586949476935032</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H37">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>389.5023010054106</v>
+        <v>448.9854626394955</v>
       </c>
       <c r="R37">
-        <v>389.5023010054106</v>
+        <v>4040.86916375546</v>
       </c>
       <c r="S37">
-        <v>0.004250912399813905</v>
+        <v>0.004426046545849095</v>
       </c>
       <c r="T37">
-        <v>0.004250912399813905</v>
+        <v>0.004426046545849095</v>
       </c>
     </row>
   </sheetData>
